--- a/excel/AI agents in Healthcare.xlsx
+++ b/excel/AI agents in Healthcare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49afe6381fd2a7e4/Desktop/DigeonTech/Newsletter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0cbccc594207fa0/Desktop/digeon/digeon/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2A5AA739-C290-4BEC-97C5-69B9B5758C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBDEF98F-E922-4898-9556-5C46D9B4529B}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{2A5AA739-C290-4BEC-97C5-69B9B5758C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3329C8FD-E4F1-4D58-AC96-7D56F245AF6D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{271C7F2C-58C6-4D6C-A5BB-FE1CF7A1A81E}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{271C7F2C-58C6-4D6C-A5BB-FE1CF7A1A81E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>AI Agents in Healthcare</t>
   </si>
@@ -39,30 +39,12 @@
     <t>#</t>
   </si>
   <si>
-    <t>Best For</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Pricing Model</t>
-  </si>
-  <si>
     <t>Glass AI</t>
   </si>
   <si>
     <t>AI clinical assistant for diagnosis support</t>
   </si>
   <si>
-    <t>glass.health</t>
-  </si>
-  <si>
-    <t>Clinical Decision Support</t>
-  </si>
-  <si>
     <t>Freemium</t>
   </si>
   <si>
@@ -72,12 +54,6 @@
     <t>Ambient clinical documentation</t>
   </si>
   <si>
-    <t>nuance.com</t>
-  </si>
-  <si>
-    <t>Medical Documentation</t>
-  </si>
-  <si>
     <t>Paid (enterprise)</t>
   </si>
   <si>
@@ -87,33 +63,18 @@
     <t>AI-powered medical note-taking</t>
   </si>
   <si>
-    <t>deepscribe.ai</t>
-  </si>
-  <si>
     <t>Abridge</t>
   </si>
   <si>
     <t>AI patient-physician conversation transcription</t>
   </si>
   <si>
-    <t>abridge.com</t>
-  </si>
-  <si>
-    <t>Clinical Transcription</t>
-  </si>
-  <si>
     <t>Butterfly iQ+ AI</t>
   </si>
   <si>
     <t>AI ultrasound imaging analysis</t>
   </si>
   <si>
-    <t>butterflynetwork.com</t>
-  </si>
-  <si>
-    <t>Medical Imaging</t>
-  </si>
-  <si>
     <t>Paid (hardware + AI)</t>
   </si>
   <si>
@@ -123,9 +84,6 @@
     <t>AI medical imaging triage &amp; analysis</t>
   </si>
   <si>
-    <t>aidoc.com</t>
-  </si>
-  <si>
     <t>Enterprise Paid</t>
   </si>
   <si>
@@ -135,105 +93,54 @@
     <t>AI stroke and cardiology triage agent</t>
   </si>
   <si>
-    <t>viz.ai</t>
-  </si>
-  <si>
-    <t>Medical Imaging / Triage</t>
-  </si>
-  <si>
     <t>Cleerly</t>
   </si>
   <si>
     <t>AI coronary artery analysis from CT scans</t>
   </si>
   <si>
-    <t>cleerlyhealth.com</t>
-  </si>
-  <si>
-    <t>Cardiology Imaging AI</t>
-  </si>
-  <si>
     <t>Enlitic</t>
   </si>
   <si>
     <t>AI radiology workflow optimization</t>
   </si>
   <si>
-    <t>enlitic.com</t>
-  </si>
-  <si>
-    <t>Radiology Operations AI</t>
-  </si>
-  <si>
     <t>SkinVision</t>
   </si>
   <si>
     <t>AI skin lesion risk detection (melanoma, etc.)</t>
   </si>
   <si>
-    <t>skinvision.com</t>
-  </si>
-  <si>
-    <t>Dermatology AI</t>
-  </si>
-  <si>
     <t>Qure.ai</t>
   </si>
   <si>
     <t>AI radiology imaging for lung, brain, chest, COVID</t>
   </si>
   <si>
-    <t>qure.ai</t>
-  </si>
-  <si>
     <t>PathAI</t>
   </si>
   <si>
     <t>AI pathology slide analysis</t>
   </si>
   <si>
-    <t>pathai.com</t>
-  </si>
-  <si>
-    <t>Pathology AI</t>
-  </si>
-  <si>
     <t>Tempus</t>
   </si>
   <si>
     <t>AI precision oncology, patient data analysis</t>
   </si>
   <si>
-    <t>tempus.com</t>
-  </si>
-  <si>
-    <t>Oncology Decision Support</t>
-  </si>
-  <si>
     <t>Biofourmis</t>
   </si>
   <si>
     <t>AI-driven remote patient monitoring</t>
   </si>
   <si>
-    <t>biofourmis.com</t>
-  </si>
-  <si>
-    <t>Remote Patient Management</t>
-  </si>
-  <si>
     <t>Babylon Health AI</t>
   </si>
   <si>
     <t>AI-driven patient symptom checker</t>
   </si>
   <si>
-    <t>babylonhealth.com</t>
-  </si>
-  <si>
-    <t>Virtual Care / Triage</t>
-  </si>
-  <si>
     <t>Freemium / Paid</t>
   </si>
   <si>
@@ -243,24 +150,12 @@
     <t>AI medical triage &amp; symptom assessment</t>
   </si>
   <si>
-    <t>infermedica.com</t>
-  </si>
-  <si>
-    <t>Symptom Checker / Triage</t>
-  </si>
-  <si>
     <t>HealthGPT</t>
   </si>
   <si>
     <t>AI chatbot for personalized health advice</t>
   </si>
   <si>
-    <t>N/A (Open-source/experimental)</t>
-  </si>
-  <si>
-    <t>AI Health Chat Agent</t>
-  </si>
-  <si>
     <t>Free / Open-source</t>
   </si>
   <si>
@@ -270,19 +165,61 @@
     <t>AI expert second opinion agent</t>
   </si>
   <si>
-    <t>docus.ai</t>
-  </si>
-  <si>
-    <t>Remote Specialist Consult</t>
-  </si>
-  <si>
     <t>Oracle AI Agent</t>
   </si>
   <si>
     <t>AI Healthcare Solutions with EHR integrated, AI-powered voice recognition technology.</t>
   </si>
   <si>
-    <t>Enhance physician-patient interactions with Oracle Health Clinical AI Agent</t>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>https://glass.health/</t>
+  </si>
+  <si>
+    <t>https://www.nuance.com/index.html</t>
+  </si>
+  <si>
+    <t>https://www.abridge.com/</t>
+  </si>
+  <si>
+    <t>https://www.butterflynetwork.com/index.html</t>
+  </si>
+  <si>
+    <t>https://www.viz.ai/</t>
+  </si>
+  <si>
+    <t>https://www.cleerlyhealth.com/</t>
+  </si>
+  <si>
+    <t>https://enlitic.com/</t>
+  </si>
+  <si>
+    <t>https://www.skinvision.com/</t>
+  </si>
+  <si>
+    <t>https://www.qure.ai/</t>
+  </si>
+  <si>
+    <t>https://www.pathai.com/</t>
+  </si>
+  <si>
+    <t>https://www.tempus.com/</t>
+  </si>
+  <si>
+    <t>https://infermedica.com/</t>
+  </si>
+  <si>
+    <t>https://docus.ai/</t>
+  </si>
+  <si>
+    <t>https://go.oracle.com/LP=147219?src1=:ad:pas:go:dg:a_nas:l5:RC_GOOG240501P00011C00561:MainAd&amp;gad_source=1&amp;gad_campaignid=21493149105&amp;gclid=CjwKCAjwyb3DBhBlEiwAqZLe5Kpmrq18lrMz2JobhrU0WEXXdPsTQAuas-54ktjc16Cq4bY2VzKQzxoCqzgQAvD_BwE</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>Website/Source</t>
   </si>
 </sst>
 </file>
@@ -366,9 +303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -406,7 +343,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -512,7 +449,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -654,7 +591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -664,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155ED47C-70D6-4DA1-B112-6293373C9F74}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -673,9 +610,8 @@
     <col min="1" max="1" width="7.54296875" customWidth="1"/>
     <col min="2" max="2" width="22.7265625" customWidth="1"/>
     <col min="3" max="3" width="29.54296875" customWidth="1"/>
-    <col min="4" max="4" width="29.1796875" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="32.6328125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="6" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -691,415 +627,379 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://glass.health/" xr:uid="{0F1B159D-039B-4529-9E98-890D6088FDBD}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://www.nuance.com/" xr:uid="{11D62239-4157-4116-9523-0960B4FF42FB}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://www.deepscribe.ai/" xr:uid="{FD465194-9FBE-4C11-A6B0-D5DE9C66C591}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://www.abridge.com/" xr:uid="{D8BBBA6C-1033-497A-A0D0-12378289994F}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://butterflynetwork.com/" xr:uid="{C8F6F527-F54F-49EB-A29C-A0398AAE00E2}"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://www.aidoc.com/" xr:uid="{E8E7EB89-479B-4843-968B-73BCD9028247}"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://www.viz.ai/" xr:uid="{B1DEC3F5-92CD-4354-92ED-B7F1434D6995}"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://www.cleerlyhealth.com/" xr:uid="{ADCE3D24-6A73-404F-90C9-F4A37C6F514C}"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://enlitic.com/" xr:uid="{B33A486F-8FBE-4FCE-B867-011302962799}"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://www.skinvision.com/" xr:uid="{5338E88C-0AA1-49AC-9E60-32FC15239DFC}"/>
-    <hyperlink ref="D13" r:id="rId11" display="https://www.qure.ai/" xr:uid="{BD64EA64-CF8E-42C9-99F7-F282E7D49EEA}"/>
-    <hyperlink ref="D14" r:id="rId12" display="https://www.pathai.com/" xr:uid="{22B1F8E6-5BC8-4BB0-B4F1-579B4EA07C44}"/>
-    <hyperlink ref="D15" r:id="rId13" display="https://www.tempus.com/" xr:uid="{2C33247D-DC7C-49A0-A610-C2F712E5CCCF}"/>
-    <hyperlink ref="D16" r:id="rId14" display="https://biofourmis.com/" xr:uid="{E2CFD512-8DA8-46B4-BFDB-7C3ED654B2CA}"/>
-    <hyperlink ref="D17" r:id="rId15" display="https://www.babylonhealth.com/" xr:uid="{6D028DC9-7736-40C6-9873-93CC4E07D85C}"/>
-    <hyperlink ref="D18" r:id="rId16" display="https://www.infermedica.com/" xr:uid="{53D49C88-C0AE-4AB6-ACFB-99753F9B142D}"/>
-    <hyperlink ref="D20" r:id="rId17" display="https://docus.ai/" xr:uid="{B1695B00-8AB0-4275-82A9-5F021AE94393}"/>
-    <hyperlink ref="D21" r:id="rId18" display="https://go.oracle.com/LP=147219?src1=:ad:pas:go:dg:a_nas:l5:RC_GOOG240501P00011C00561:MainAd&amp;gad_source=1&amp;gad_campaignid=21493149105&amp;gclid=CjwKCAjwyb3DBhBlEiwAqZLe5Kpmrq18lrMz2JobhrU0WEXXdPsTQAuas-54ktjc16Cq4bY2VzKQzxoCqzgQAvD_BwE" xr:uid="{DA6A0347-027E-4E24-A7D5-8CF351B446B6}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{F7976FF0-2AB6-47C1-AF0D-12B19E531193}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{161D90CD-FA39-4618-A511-F3AC07033709}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{A8CFDCE1-9CDE-4659-9242-D49637E4EB55}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{B532DE02-42DB-4F9B-BED3-C41B2CFC482D}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{DB059B85-BFE4-4F18-8915-BF6D50337D8A}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{83D926B3-E9E4-490E-8AF0-7F4E228C0282}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{FC8481C2-6287-4C9D-839B-B2ECE1D68141}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{00037479-C65B-4102-AFB8-F08330D5725B}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{24718202-2C07-405B-9E8E-EEFA0C5655BB}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{9BD2825A-B2D0-4E4C-A2BC-EE0DF28B03C6}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{9DB38B89-5AD3-4C19-A27C-663058E6C1C4}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{8F125AEB-EDEF-4000-BC70-C757E4490200}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{7EE0BF02-0052-4F5A-9D05-AEF88E6E8B84}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{527E2556-7773-499C-89DF-3897DBED91AC}"/>
+    <hyperlink ref="E17" r:id="rId15" xr:uid="{D87B6119-E509-4E4B-849D-E6C05BF6271E}"/>
+    <hyperlink ref="E18" r:id="rId16" xr:uid="{8C2EF4FB-860D-470A-9926-4291DB690760}"/>
+    <hyperlink ref="E20" r:id="rId17" xr:uid="{D632CA34-4C54-49A7-ADD4-EDBEB38FE909}"/>
+    <hyperlink ref="E21" r:id="rId18" xr:uid="{EFDD97B7-2754-4294-A93E-F4691B66157C}"/>
+    <hyperlink ref="E19" r:id="rId19" xr:uid="{7BC1BB79-11C8-4437-A878-262BC765E781}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
